--- a/TNR_PREJDD/RO/PREJDD.RO.LIE.xlsx
+++ b/TNR_PREJDD/RO/PREJDD.RO.LIE.xlsx
@@ -1755,16 +1755,17 @@
   <dimension ref="A1:BS997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="BF2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="20.88671875" customWidth="1" collapsed="1"/>
+    <col min="62" max="62" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:71" s="5" customFormat="1" ht="15.75" customHeight="1">
